--- a/config/testcases/Report_Chunking1Speaking(Clone).xlsx
+++ b/config/testcases/Report_Chunking1Speaking(Clone).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="82">
   <si>
     <t>TCID</t>
   </si>
@@ -165,10 +165,10 @@
     <t>TS3</t>
   </si>
   <si>
-    <t>setIndexVariableFile</t>
+    <t>setVariableFile</t>
   </si>
   <si>
-    <t>1</t>
+    <t>index,1</t>
   </si>
   <si>
     <t>Đợi mic bật</t>
@@ -216,13 +216,16 @@
     <t>addIndexVariableFile</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chờ audio </t>
   </si>
   <si>
     <t>waitForObjectContain</t>
   </si>
   <si>
-    <t>FxSource,AudioSource,clip,Can you say ___ kidgirl</t>
+    <t>Managers/SoundManager/FxSource,AudioSource,clip,Can you say ___ kidgirl</t>
   </si>
   <si>
     <t>Kiểm tra audio text</t>
@@ -480,20 +483,20 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1371,7 +1374,7 @@
       <c r="D6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="16"/>
@@ -1399,7 +1402,7 @@
       <c r="D7" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="37" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="16"/>
@@ -1431,7 +1434,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="14"/>
-      <c r="E8" s="39"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
         <v>10</v>
@@ -1460,10 +1463,10 @@
       <c r="C9" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="16"/>
@@ -1491,8 +1494,8 @@
       <c r="D10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="37" t="s">
-        <v>49</v>
+      <c r="E10" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
@@ -1514,13 +1517,13 @@
         <v>35</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
@@ -1542,7 +1545,7 @@
         <v>39</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="18"/>
@@ -1558,7 +1561,7 @@
       </c>
       <c r="J12" s="16"/>
       <c r="K12" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -1572,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="18"/>
@@ -1588,7 +1591,7 @@
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -1602,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>48</v>
@@ -1635,7 +1638,7 @@
       <c r="D15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="37" t="s">
         <v>52</v>
       </c>
       <c r="F15" s="16"/>
@@ -1663,7 +1666,7 @@
       <c r="D16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="37" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="16"/>
@@ -1678,7 +1681,7 @@
       </c>
       <c r="J16" s="19"/>
       <c r="K16" s="45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L16" s="19"/>
       <c r="M16" s="21"/>
@@ -1695,7 +1698,7 @@
         <v>57</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="39"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
         <v>10</v>
@@ -1708,7 +1711,7 @@
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L17" s="19"/>
       <c r="M17" s="21"/>
@@ -1724,10 +1727,10 @@
       <c r="C18" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="F18" s="16"/>
@@ -1755,8 +1758,8 @@
       <c r="D19" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="37" t="s">
-        <v>49</v>
+      <c r="E19" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
@@ -1781,7 +1784,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>38</v>
@@ -1902,13 +1905,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="46" t="s">
         <v>1</v>
@@ -1943,7 +1946,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="50">
         <v>1.0</v>
@@ -1980,7 +1983,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="50">
         <v>1.0</v>
@@ -2581,12 +2584,12 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNoReturn")</f>
-        <v>waitForObjectNoReturn</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B15" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
-        <v>element,timeout(s)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSpli,second, element")</f>
+        <v>strSpli,second, element</v>
       </c>
       <c r="C15" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2594,10 +2597,7 @@
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="56"/>
-      <c r="F15" s="58" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true")</f>
-        <v>hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true</v>
-      </c>
+      <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -2621,12 +2621,12 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContain")</f>
-        <v>waitForObjectContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNoReturn")</f>
+        <v>waitForObjectNoReturn</v>
       </c>
       <c r="B16" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,timeout(s)")</f>
+        <v>element,timeout(s)</v>
       </c>
       <c r="C16" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2634,7 +2634,10 @@
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="F16" s="58" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true")</f>
+        <v>hàm đợi 1 object xuất hiện (lúc xuất hiện lúc k) =&gt; luôn trả về true</v>
+      </c>
       <c r="G16" s="56"/>
       <c r="H16" s="56"/>
       <c r="I16" s="56"/>
@@ -2662,8 +2665,8 @@
         <v>waitForObjectContain</v>
       </c>
       <c r="B17" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,key,content")</f>
-        <v>element,key,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C17" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2695,12 +2698,12 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectInScreen")</f>
-        <v>waitForObjectInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContain")</f>
+        <v>waitForObjectContain</v>
       </c>
       <c r="B18" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
-        <v>element[,timeout(s)]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,key,content")</f>
+        <v>element,key,content</v>
       </c>
       <c r="C18" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2731,18 +2734,12 @@
       <c r="Z18" s="56"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"simulateClick")</f>
-        <v>simulateClick</v>
-      </c>
+      <c r="A19" s="56"/>
       <c r="B19" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,property[,index]")</f>
-        <v>element,property[,index]</v>
-      </c>
-      <c r="C19" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,key,strAdd,second,content")</f>
+        <v>locator,key,strAdd,second,content</v>
+      </c>
+      <c r="C19" s="57"/>
       <c r="D19" s="59"/>
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
@@ -2769,12 +2766,12 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
-        <v>press</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectInScreen")</f>
+        <v>waitForObjectInScreen</v>
       </c>
       <c r="B20" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,index]")</f>
-        <v>element[,index]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,timeout(s)]")</f>
+        <v>element[,timeout(s)]</v>
       </c>
       <c r="C20" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2806,12 +2803,12 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressWithTag")</f>
-        <v>pressWithTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"simulateClick")</f>
+        <v>simulateClick</v>
       </c>
       <c r="B21" s="57" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tagNew,tagOld")</f>
-        <v>tagNew,tagOld</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,property[,index]")</f>
+        <v>element,property[,index]</v>
       </c>
       <c r="C21" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -2843,23 +2840,20 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
-        <v>swipeToRight</v>
-      </c>
-      <c r="B22" s="59" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
-      </c>
-      <c r="C22" s="59" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"press")</f>
+        <v>press</v>
+      </c>
+      <c r="B22" s="57" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,index]")</f>
+        <v>element[,index]</v>
+      </c>
+      <c r="C22" s="57" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="56"/>
-      <c r="F22" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
-        <v>Scroll sang phải</v>
-      </c>
+      <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
@@ -2883,23 +2877,20 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
-        <v>swipeToRight</v>
-      </c>
-      <c r="B23" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
-        <v>x1,x2,y</v>
-      </c>
-      <c r="C23" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pressWithTag")</f>
+        <v>pressWithTag</v>
+      </c>
+      <c r="B23" s="58" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tagNew,tagOld")</f>
+        <v>tagNew,tagOld</v>
+      </c>
+      <c r="C23" s="58" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D23" s="56"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
-        <v>Scroll sang phải</v>
-      </c>
+      <c r="F23" s="56"/>
       <c r="G23" s="56"/>
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
@@ -2923,20 +2914,23 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValue")</f>
-        <v>getPropertyValue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
+        <v>swipeToRight</v>
       </c>
       <c r="B24" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
-        <v>element,component,property</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C24" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
+      <c r="F24" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
+        <v>Scroll sang phải</v>
+      </c>
       <c r="G24" s="56"/>
       <c r="H24" s="56"/>
       <c r="I24" s="56"/>
@@ -2960,20 +2954,23 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageName")</f>
-        <v>getImageName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToRight")</f>
+        <v>swipeToRight</v>
       </c>
       <c r="B25" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,component]")</f>
-        <v>element[,component]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"x1,x2,y")</f>
+        <v>x1,x2,y</v>
       </c>
       <c r="C25" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D25" s="56"/>
       <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="F25" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Scroll sang phải")</f>
+        <v>Scroll sang phải</v>
+      </c>
       <c r="G25" s="56"/>
       <c r="H25" s="56"/>
       <c r="I25" s="56"/>
@@ -2997,12 +2994,12 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameVariable")</f>
-        <v>getImageNameVariable</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValue")</f>
+        <v>getPropertyValue</v>
       </c>
       <c r="B26" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate,element[,component],key")</f>
-        <v>generate,element[,component],key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
       </c>
       <c r="C26" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3034,12 +3031,12 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageColor")</f>
-        <v>getImageColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageName")</f>
+        <v>getImageName</v>
       </c>
       <c r="B27" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,component]")</f>
+        <v>element[,component]</v>
       </c>
       <c r="C27" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3071,12 +3068,12 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValues")</f>
-        <v>getPropertyValues</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameVariable")</f>
+        <v>getImageNameVariable</v>
       </c>
       <c r="B28" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second")</f>
-        <v>element,component,property,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"generate,element[,component],key")</f>
+        <v>generate,element[,component],key</v>
       </c>
       <c r="C28" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3084,10 +3081,7 @@
       </c>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
-      <c r="F28" s="58" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"param number là số lượng value cần check")</f>
-        <v>param number là số lượng value cần check</v>
-      </c>
+      <c r="F28" s="58"/>
       <c r="G28" s="56"/>
       <c r="H28" s="56"/>
       <c r="I28" s="56"/>
@@ -3111,12 +3105,12 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getText")</f>
-        <v>getText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageColor")</f>
+        <v>getImageColor</v>
       </c>
       <c r="B29" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
-        <v>element,component</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C29" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3148,12 +3142,12 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTexts")</f>
-        <v>getTexts</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPropertyValues")</f>
+        <v>getPropertyValues</v>
       </c>
       <c r="B30" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,expect")</f>
-        <v>element,component,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second")</f>
+        <v>element,component,property,second</v>
       </c>
       <c r="C30" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3162,10 +3156,8 @@
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="58" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
-TH getTexts contain expected điền giá trị expect+""_boolean_""")</f>
-        <v>expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
-TH getTexts contain expected điền giá trị expect+"_boolean_"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"param number là số lượng value cần check")</f>
+        <v>param number là số lượng value cần check</v>
       </c>
       <c r="G30" s="56"/>
       <c r="H30" s="56"/>
@@ -3190,12 +3182,12 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByTime")</f>
-        <v>getTextsByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getText")</f>
+        <v>getText</v>
       </c>
       <c r="B31" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,second,expect")</f>
-        <v>element,component,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C31" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3203,10 +3195,7 @@
       </c>
       <c r="D31" s="56"/>
       <c r="E31" s="56"/>
-      <c r="F31" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or time = second")</f>
-        <v>Stop khi actual contain expect or time = second</v>
-      </c>
+      <c r="F31" s="56"/>
       <c r="G31" s="56"/>
       <c r="H31" s="56"/>
       <c r="I31" s="56"/>
@@ -3230,12 +3219,12 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByLocator")</f>
-        <v>getTextsByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTexts")</f>
+        <v>getTexts</v>
       </c>
       <c r="B32" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,component1,element2,expect")</f>
-        <v>element1,component1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,expect")</f>
+        <v>element,component,expect</v>
       </c>
       <c r="C32" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3244,8 +3233,10 @@
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
       <c r="F32" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or element 2 display")</f>
-        <v>Stop khi actual contain expect or element 2 display</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
+TH getTexts contain expected điền giá trị expect+""_boolean_""")</f>
+        <v>expect là điều kiện để hàm kết thúc lặp, trường hợp expect và getTexts k = nhau sẽ dừng sau 30 s 
+TH getTexts contain expected điền giá trị expect+"_boolean_"</v>
       </c>
       <c r="G32" s="56"/>
       <c r="H32" s="56"/>
@@ -3270,12 +3261,12 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextNoColor")</f>
-        <v>getTextNoColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByTime")</f>
+        <v>getTextsByTime</v>
       </c>
       <c r="B33" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,...string split")</f>
-        <v>element,component,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,second,expect")</f>
+        <v>element,component,second,expect</v>
       </c>
       <c r="C33" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3283,7 +3274,10 @@
       </c>
       <c r="D33" s="56"/>
       <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or time = second")</f>
+        <v>Stop khi actual contain expect or time = second</v>
+      </c>
       <c r="G33" s="56"/>
       <c r="H33" s="56"/>
       <c r="I33" s="56"/>
@@ -3307,12 +3301,12 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
-        <v>getTextLocatorChild</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextsByLocator")</f>
+        <v>getTextsByLocator</v>
       </c>
       <c r="B34" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
-        <v>element,component,key,...string split</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,component1,element2,expect")</f>
+        <v>element1,component1,element2,expect</v>
       </c>
       <c r="C34" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3320,11 +3314,9 @@
       </c>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
-      <c r="F34" s="58" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
-        <v>get value by key in variable file to defind locator to getText
-Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      <c r="F34" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Stop khi actual contain expect or element 2 display")</f>
+        <v>Stop khi actual contain expect or element 2 display</v>
       </c>
       <c r="G34" s="56"/>
       <c r="H34" s="56"/>
@@ -3349,16 +3341,16 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
-        <v>waitForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextNoColor")</f>
+        <v>getTextNoColor</v>
       </c>
       <c r="B35" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
-        <v>element, second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,...string split")</f>
+        <v>element,component,...string split</v>
       </c>
       <c r="C35" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D35" s="56"/>
       <c r="E35" s="56"/>
@@ -3386,12 +3378,12 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
-        <v>swipeToDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextAlphabet")</f>
+        <v>getTextAlphabet</v>
       </c>
       <c r="B36" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component")</f>
+        <v>element,component</v>
       </c>
       <c r="C36" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3399,7 +3391,10 @@
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
+      <c r="F36" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return string only alphabet and space")</f>
+        <v>return string only alphabet and space</v>
+      </c>
       <c r="G36" s="56"/>
       <c r="H36" s="56"/>
       <c r="I36" s="56"/>
@@ -3423,12 +3418,12 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
-        <v>getElements</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextLocatorChild")</f>
+        <v>getTextLocatorChild</v>
       </c>
       <c r="B37" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,...string split")</f>
+        <v>element,component,key,...string split</v>
       </c>
       <c r="C37" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3436,7 +3431,12 @@
       </c>
       <c r="D37" s="56"/>
       <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="58" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath")</f>
+        <v>get value by key in variable file to defind locator to getText
+Bắt buộc khi sử dụng method này phải gọi method returnPath</v>
+      </c>
       <c r="G37" s="56"/>
       <c r="H37" s="56"/>
       <c r="I37" s="56"/>
@@ -3460,12 +3460,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
-        <v>sleep</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObject")</f>
+        <v>waitForObject</v>
       </c>
       <c r="B38" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
-        <v>second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element, second")</f>
+        <v>element, second</v>
       </c>
       <c r="C38" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -3497,16 +3497,16 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
-        <v>getSpineState</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeToDown")</f>
+        <v>swipeToDown</v>
       </c>
       <c r="B39" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
       </c>
       <c r="C39" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D39" s="56"/>
       <c r="E39" s="56"/>
@@ -3534,22 +3534,19 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
-        <v>getSpineStates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElements")</f>
+        <v>getElements</v>
       </c>
       <c r="B40" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
-        <v>element,second,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C40" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D40" s="56"/>
-      <c r="E40" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
-        <v>state1,state2</v>
-      </c>
+      <c r="E40" s="56"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
@@ -3574,23 +3571,20 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
-        <v>getAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sleep")</f>
+        <v>sleep</v>
       </c>
       <c r="B41" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"second")</f>
+        <v>second</v>
       </c>
       <c r="C41" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D41" s="56"/>
       <c r="E41" s="56"/>
-      <c r="F41" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
-        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
-      </c>
+      <c r="F41" s="56"/>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
@@ -3614,12 +3608,12 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
-        <v>getPointScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineState")</f>
+        <v>getSpineState</v>
       </c>
       <c r="B42" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
-        <v>element,"x/y"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C42" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3627,10 +3621,7 @@
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
-      <c r="F42" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
-        <v>get coordinates of element of X or Y</v>
-      </c>
+      <c r="F42" s="56"/>
       <c r="G42" s="56"/>
       <c r="H42" s="56"/>
       <c r="I42" s="56"/>
@@ -3654,23 +3645,23 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
-        <v>getSizeScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSpineStates")</f>
+        <v>getSpineStates</v>
       </c>
       <c r="B43" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
-        <v>"w/h"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,count")</f>
+        <v>element,second,count</v>
       </c>
       <c r="C43" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
-        <v>get size of device of  with (w) or height (h)</v>
-      </c>
+      <c r="E43" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"state1,state2")</f>
+        <v>state1,state2</v>
+      </c>
+      <c r="F43" s="56"/>
       <c r="G43" s="56"/>
       <c r="H43" s="56"/>
       <c r="I43" s="56"/>
@@ -3694,12 +3685,12 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
-        <v>isBoolean</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudioSource")</f>
+        <v>getAudioSource</v>
       </c>
       <c r="B44" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
-        <v>value1, vaule 2, operator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C44" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3708,8 +3699,8 @@
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
       <c r="F44" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
-        <v>Hiện tại:[&lt;],[&gt;]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)")</f>
+        <v>lấy param khi thuộc SoundManager (MusicSource, FxSource, FxOneShotSourse)</v>
       </c>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
@@ -3734,12 +3725,12 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
-        <v>isPointInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPointScreen")</f>
+        <v>getPointScreen</v>
       </c>
       <c r="B45" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,""x/y""")</f>
+        <v>element,"x/y"</v>
       </c>
       <c r="C45" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3747,7 +3738,10 @@
       </c>
       <c r="D45" s="56"/>
       <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
+      <c r="F45" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get coordinates of element of X or Y")</f>
+        <v>get coordinates of element of X or Y</v>
+      </c>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
@@ -3771,12 +3765,12 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
-        <v>isMoveLeft</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSizeScreen")</f>
+        <v>getSizeScreen</v>
       </c>
       <c r="B46" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
-        <v>element[,second]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""w/h""")</f>
+        <v>"w/h"</v>
       </c>
       <c r="C46" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3784,7 +3778,10 @@
       </c>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="F46" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"get size of device of  with (w) or height (h)")</f>
+        <v>get size of device of  with (w) or height (h)</v>
+      </c>
       <c r="G46" s="56"/>
       <c r="H46" s="56"/>
       <c r="I46" s="56"/>
@@ -3808,12 +3805,12 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
-        <v>isMoveDown</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isBoolean")</f>
+        <v>isBoolean</v>
       </c>
       <c r="B47" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"value1, vaule 2, operator")</f>
+        <v>value1, vaule 2, operator</v>
       </c>
       <c r="C47" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3821,7 +3818,10 @@
       </c>
       <c r="D47" s="56"/>
       <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
+      <c r="F47" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Hiện tại:[&lt;],[&gt;]")</f>
+        <v>Hiện tại:[&lt;],[&gt;]</v>
+      </c>
       <c r="G47" s="56"/>
       <c r="H47" s="56"/>
       <c r="I47" s="56"/>
@@ -3845,12 +3845,12 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
-        <v>isLocationCompare</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isPointInScreen")</f>
+        <v>isPointInScreen</v>
       </c>
       <c r="B48" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
-        <v>element1,element2,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C48" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3858,10 +3858,7 @@
       </c>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
-      <c r="F48" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
-        <v>coordinate = x/y</v>
-      </c>
+      <c r="F48" s="56"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
@@ -3885,16 +3882,16 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
-        <v>move</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveLeft")</f>
+        <v>isMoveLeft</v>
       </c>
       <c r="B49" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,second]")</f>
+        <v>element[,second]</v>
       </c>
       <c r="C49" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -3922,12 +3919,12 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
-        <v>elementNotDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isMoveDown")</f>
+        <v>isMoveDown</v>
       </c>
       <c r="B50" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C50" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3959,12 +3956,12 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isLocationCompare")</f>
+        <v>isLocationCompare</v>
       </c>
       <c r="B51" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,coordinate")</f>
+        <v>element1,element2,coordinate</v>
       </c>
       <c r="C51" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -3972,7 +3969,10 @@
       </c>
       <c r="D51" s="56"/>
       <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
+      <c r="F51" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y")</f>
+        <v>coordinate = x/y</v>
+      </c>
       <c r="G51" s="56"/>
       <c r="H51" s="56"/>
       <c r="I51" s="56"/>
@@ -3996,16 +3996,16 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
-        <v>waitForObjectNotPresent</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"move")</f>
+        <v>move</v>
       </c>
       <c r="B52" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
-        <v>element,second</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C52" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
@@ -4033,23 +4033,20 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
-        <v>moveByCoordinates</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elementNotDisplay")</f>
+        <v>elementNotDisplay</v>
       </c>
       <c r="B53" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
-        <v>element,number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C53" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D53" s="56"/>
       <c r="E53" s="56"/>
-      <c r="F53" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
-        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
-      </c>
+      <c r="F53" s="56"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
@@ -4073,23 +4070,18 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
-        <v>waitForObjectNotInScreen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B54" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
-        <v>element,second,size,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C54" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D54" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
-coordinate = x/y")</f>
-        <v>size: w/h
-coordinate = x/y</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D54" s="56"/>
       <c r="E54" s="56"/>
       <c r="F54" s="56"/>
       <c r="G54" s="56"/>
@@ -4115,16 +4107,16 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
-        <v>waitForObjectContainNotAble</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotPresent")</f>
+        <v>waitForObjectNotPresent</v>
       </c>
       <c r="B55" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
-        <v>element,component,property,content</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second")</f>
+        <v>element,second</v>
       </c>
       <c r="C55" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D55" s="56"/>
       <c r="E55" s="56"/>
@@ -4152,23 +4144,23 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
-        <v>isRotation</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moveByCoordinates")</f>
+        <v>moveByCoordinates</v>
       </c>
       <c r="B56" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
-        <v>element,coordinate</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,number")</f>
+        <v>element,number</v>
       </c>
       <c r="C56" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D56" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
-        <v>coordinate = x/y/z/w</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D56" s="56"/>
       <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
+      <c r="F56" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number là dịch chuyển khoảng bn (thường để 1)")</f>
+        <v>number là dịch chuyển khoảng bn (thường để 1)</v>
+      </c>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
       <c r="I56" s="56"/>
@@ -4192,23 +4184,25 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectNotInScreen")</f>
+        <v>waitForObjectNotInScreen</v>
       </c>
       <c r="B57" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
-        <v>element,count</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,size,coordinate")</f>
+        <v>element,second,size,coordinate</v>
       </c>
       <c r="C57" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D57" s="56"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D57" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"size: w/h
+coordinate = x/y")</f>
+        <v>size: w/h
+coordinate = x/y</v>
+      </c>
       <c r="E57" s="56"/>
-      <c r="F57" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
-        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
-      </c>
+      <c r="F57" s="56"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
       <c r="I57" s="56"/>
@@ -4232,21 +4226,18 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
-        <v>getListAudioSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"waitForObjectContainNotAble")</f>
+        <v>waitForObjectContainNotAble</v>
       </c>
       <c r="B58" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
-        <v>element,count,expects</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,content")</f>
+        <v>element,component,property,content</v>
       </c>
       <c r="C58" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
-      </c>
-      <c r="D58" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
-        <v>expects = [value1;value2;..]</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D58" s="56"/>
       <c r="E58" s="56"/>
       <c r="F58" s="56"/>
       <c r="G58" s="56"/>
@@ -4272,22 +4263,22 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
-        <v>getImageNameAndColor</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isRotation")</f>
+        <v>isRotation</v>
       </c>
       <c r="B59" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,coordinate")</f>
+        <v>element,coordinate</v>
       </c>
       <c r="C59" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
-        <v>image + ","+ color</v>
-      </c>
+      <c r="D59" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"coordinate = x/y/z/w")</f>
+        <v>coordinate = x/y/z/w</v>
+      </c>
+      <c r="E59" s="56"/>
       <c r="F59" s="56"/>
       <c r="G59" s="56"/>
       <c r="H59" s="56"/>
@@ -4312,12 +4303,12 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
-        <v>getTextContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B60" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
-        <v>element,component,containt</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count")</f>
+        <v>element,count</v>
       </c>
       <c r="C60" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4325,7 +4316,10 @@
       </c>
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
+      <c r="F60" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1 element phát bao nhiêu audio trong khoảng 25 giay")</f>
+        <v>1 element phát bao nhiêu audio trong khoảng 25 giay</v>
+      </c>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
       <c r="I60" s="56"/>
@@ -4349,18 +4343,21 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getListAudioSource")</f>
+        <v>getListAudioSource</v>
       </c>
       <c r="B61" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,count,expects")</f>
+        <v>element,count,expects</v>
       </c>
       <c r="C61" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D61" s="56"/>
+      <c r="D61" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"expects = [value1;value2;..]")</f>
+        <v>expects = [value1;value2;..]</v>
+      </c>
       <c r="E61" s="56"/>
       <c r="F61" s="56"/>
       <c r="G61" s="56"/>
@@ -4386,19 +4383,22 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
-        <v>isScale</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getImageNameAndColor")</f>
+        <v>getImageNameAndColor</v>
       </c>
       <c r="B62" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
-        <v>element,component,property,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C62" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
       <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
+      <c r="E62" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"image + "",""+ color")</f>
+        <v>image + ","+ color</v>
+      </c>
       <c r="F62" s="56"/>
       <c r="G62" s="56"/>
       <c r="H62" s="56"/>
@@ -4423,21 +4423,18 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
-        <v>swipeRightToLeftEx</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getTextContain")</f>
+        <v>getTextContain</v>
       </c>
       <c r="B63" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
-        <v>number</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,containt")</f>
+        <v>element,component,containt</v>
       </c>
       <c r="C63" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D63" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
-        <v>bài bao nhiêu</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D63" s="56"/>
       <c r="E63" s="56"/>
       <c r="F63" s="56"/>
       <c r="G63" s="56"/>
@@ -4463,12 +4460,12 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
-        <v>getVideoName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B64" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C64" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4476,14 +4473,7 @@
       </c>
       <c r="D64" s="56"/>
       <c r="E64" s="56"/>
-      <c r="F64" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1</v>
-      </c>
+      <c r="F64" s="56"/>
       <c r="G64" s="56"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
@@ -4507,12 +4497,12 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isScale")</f>
+        <v>isScale</v>
       </c>
       <c r="B65" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
-        <v>element[,strSplit,indexSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,second,expect")</f>
+        <v>element,component,property,second,expect</v>
       </c>
       <c r="C65" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -4520,16 +4510,7 @@
       </c>
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
-      <c r="F65" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4")</f>
-        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
-2. strSplit: /
-3. indexSplit:1
-===&gt; Result: What_s_your_name_.mp4</v>
-      </c>
+      <c r="F65" s="56"/>
       <c r="G65" s="56"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
@@ -4553,15 +4534,21 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
-        <v>getVideoUrl</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeRightToLeftEx")</f>
+        <v>swipeRightToLeftEx</v>
       </c>
       <c r="B66" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
-        <v>element,component,key,expected</v>
-      </c>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number")</f>
+        <v>number</v>
+      </c>
+      <c r="C66" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
+      <c r="D66" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bài bao nhiêu")</f>
+        <v>bài bao nhiêu</v>
+      </c>
       <c r="E66" s="56"/>
       <c r="F66" s="56"/>
       <c r="G66" s="56"/>
@@ -4587,20 +4574,27 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
-        <v>sendKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoName")</f>
+        <v>getVideoName</v>
       </c>
       <c r="B67" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
-        <v>element,component[,property],expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
       </c>
       <c r="C67" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1</v>
+      </c>
       <c r="G67" s="56"/>
       <c r="H67" s="56"/>
       <c r="I67" s="56"/>
@@ -4624,25 +4618,28 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
-        <v>getResultByKey</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B68" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
-        <v>element,component,key</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit,indexSplit]")</f>
+        <v>element[,strSplit,indexSplit]</v>
       </c>
       <c r="C68" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
         <v>String</v>
       </c>
-      <c r="D68" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
-        <v>key = //$.Page[0].Id</v>
-      </c>
+      <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
-        <v>return value by key in json array object</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4")</f>
+        <v>1. Ví dụ: C:/Users/Monkey/AppData/LocalLow/Early Start/MonkeyX/extract/videocall/Trial_1-Hello/What_s_your_name_.mp4
+2. strSplit: /
+3. indexSplit:1
+===&gt; Result: What_s_your_name_.mp4</v>
       </c>
       <c r="G68" s="56"/>
       <c r="H68" s="56"/>
@@ -4667,23 +4664,17 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
-        <v>returnPath</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getVideoUrl")</f>
+        <v>getVideoUrl</v>
       </c>
       <c r="B69" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
-      </c>
-      <c r="C69" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expected")</f>
+        <v>element,component,key,expected</v>
+      </c>
+      <c r="C69" s="56"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
-      <c r="F69" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F69" s="56"/>
       <c r="G69" s="56"/>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
@@ -4707,12 +4698,12 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
-        <v>returnPathContain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sendKey")</f>
+        <v>sendKey</v>
       </c>
       <c r="B70" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,property],expect")</f>
+        <v>element,component[,property],expect</v>
       </c>
       <c r="C70" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4720,10 +4711,7 @@
       </c>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
-      <c r="F70" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
-        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
-      </c>
+      <c r="F70" s="56"/>
       <c r="G70" s="56"/>
       <c r="H70" s="56"/>
       <c r="I70" s="56"/>
@@ -4747,22 +4735,25 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
-        <v>returnIndex</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getResultByKey")</f>
+        <v>getResultByKey</v>
       </c>
       <c r="B71" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
-        <v>element,component,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key")</f>
+        <v>element,component,key</v>
       </c>
       <c r="C71" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
-      </c>
-      <c r="D71" s="56"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
+      <c r="D71" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key = //$.Page[0].Id")</f>
+        <v>key = //$.Page[0].Id</v>
+      </c>
       <c r="E71" s="56"/>
       <c r="F71" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
-        <v>"index" in variable file</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value by key in json array object")</f>
+        <v>return value by key in json array object</v>
       </c>
       <c r="G71" s="56"/>
       <c r="H71" s="56"/>
@@ -4787,20 +4778,23 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
-        <v>getSentenceByText</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPath")</f>
+        <v>returnPath</v>
       </c>
       <c r="B72" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
-        <v>element,component[,split string]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C72" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
+      <c r="F72" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G72" s="56"/>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
@@ -4824,12 +4818,12 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
-        <v>setTagGameObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathReplaceVariable")</f>
+        <v>returnPathReplaceVariable</v>
       </c>
       <c r="B73" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
-        <v>element,tagName</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"string, replaceStr")</f>
+        <v>string, replaceStr</v>
       </c>
       <c r="C73" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4861,12 +4855,12 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
-        <v>drag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullName")</f>
+        <v>returnPathFullName</v>
       </c>
       <c r="B74" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
-        <v>element1,element2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C74" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4898,12 +4892,12 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathFullPath")</f>
+        <v>returnPathFullPath</v>
       </c>
       <c r="B75" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
-        <v>from,to,exception,part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
       </c>
       <c r="C75" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4935,12 +4929,12 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
-        <v>returnChooseTopic</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnPathContain")</f>
+        <v>returnPathContain</v>
       </c>
       <c r="B76" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
-        <v>part</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C76" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4948,7 +4942,10 @@
       </c>
       <c r="D76" s="56"/>
       <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
+      <c r="F76" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data ")</f>
+        <v>return path của game object (go) trong TH tìm được nhiều go và k xác định được go nào (thường dùng trong mode test data </v>
+      </c>
       <c r="G76" s="56"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
@@ -4972,12 +4969,12 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
-        <v>deFindModeRunTestCase</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnIndex")</f>
+        <v>returnIndex</v>
       </c>
       <c r="B77" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
-        <v>key,sheetName,from,to</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,key,expect")</f>
+        <v>element,component,key,expect</v>
       </c>
       <c r="C77" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -4985,7 +4982,10 @@
       </c>
       <c r="D77" s="56"/>
       <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
+      <c r="F77" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""index"" in variable file")</f>
+        <v>"index" in variable file</v>
+      </c>
       <c r="G77" s="56"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
@@ -5009,16 +5009,16 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
-        <v>returnModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getSentenceByText")</f>
+        <v>getSentenceByText</v>
       </c>
       <c r="B78" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
-        <v>sheetName,to,expected,contain</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component[,split string]")</f>
+        <v>element,component[,split string]</v>
       </c>
       <c r="C78" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
@@ -5046,12 +5046,12 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
-        <v>ignoreScript</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setTagGameObject")</f>
+        <v>setTagGameObject</v>
       </c>
       <c r="B79" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
-        <v>number,to,sheetName,text</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,tagName")</f>
+        <v>element,tagName</v>
       </c>
       <c r="C79" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5083,12 +5083,12 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
-        <v>setRunModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"drag")</f>
+        <v>drag</v>
       </c>
       <c r="B80" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
-        <v>from,to,exception</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2")</f>
+        <v>element1,element2</v>
       </c>
       <c r="C80" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5120,12 +5120,12 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
-        <v>setIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B81" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
-        <v>index</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception,part")</f>
+        <v>from,to,exception,part</v>
       </c>
       <c r="C81" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5133,10 +5133,7 @@
       </c>
       <c r="D81" s="56"/>
       <c r="E81" s="56"/>
-      <c r="F81" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
-        <v>set value for "index" in variable field</v>
-      </c>
+      <c r="F81" s="56"/>
       <c r="G81" s="56"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
@@ -5160,12 +5157,12 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
-        <v>addIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnChooseTopic")</f>
+        <v>returnChooseTopic</v>
       </c>
       <c r="B82" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
-        <v>add</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"part")</f>
+        <v>part</v>
       </c>
       <c r="C82" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5197,12 +5194,12 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindModeRunTestCase")</f>
+        <v>deFindModeRunTestCase</v>
       </c>
       <c r="B83" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,sheetName,from,to")</f>
+        <v>key,sheetName,from,to</v>
       </c>
       <c r="C83" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5234,12 +5231,12 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"returnModeTC")</f>
+        <v>returnModeTC</v>
       </c>
       <c r="B84" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sheetName,to,expected,contain")</f>
+        <v>sheetName,to,expected,contain</v>
       </c>
       <c r="C84" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5247,10 +5244,7 @@
       </c>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
-      <c r="F84" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
-      </c>
+      <c r="F84" s="56"/>
       <c r="G84" s="56"/>
       <c r="H84" s="56"/>
       <c r="I84" s="56"/>
@@ -5274,12 +5268,12 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ignoreScript")</f>
+        <v>ignoreScript</v>
       </c>
       <c r="B85" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"number,to,sheetName,text")</f>
+        <v>number,to,sheetName,text</v>
       </c>
       <c r="C85" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5287,10 +5281,7 @@
       </c>
       <c r="D85" s="56"/>
       <c r="E85" s="56"/>
-      <c r="F85" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
-      </c>
+      <c r="F85" s="56"/>
       <c r="G85" s="56"/>
       <c r="H85" s="56"/>
       <c r="I85" s="56"/>
@@ -5314,12 +5305,12 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setRunModeTC")</f>
+        <v>setRunModeTC</v>
       </c>
       <c r="B86" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"from,to,exception")</f>
+        <v>from,to,exception</v>
       </c>
       <c r="C86" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5351,12 +5342,12 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setIndexVariableFile")</f>
+        <v>setIndexVariableFile</v>
       </c>
       <c r="B87" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"index")</f>
+        <v>index</v>
       </c>
       <c r="C87" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5364,7 +5355,10 @@
       </c>
       <c r="D87" s="56"/>
       <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
+      <c r="F87" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"set value for ""index"" in variable field")</f>
+        <v>set value for "index" in variable field</v>
+      </c>
       <c r="G87" s="56"/>
       <c r="H87" s="56"/>
       <c r="I87" s="56"/>
@@ -5388,20 +5382,20 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B88" s="56"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFile")</f>
+        <v>setVariableFile</v>
+      </c>
+      <c r="B88" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key(exist),value")</f>
+        <v>key(exist),value</v>
+      </c>
       <c r="C88" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
-      <c r="F88" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F88" s="56"/>
       <c r="G88" s="56"/>
       <c r="H88" s="56"/>
       <c r="I88" s="56"/>
@@ -5425,20 +5419,20 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
-      </c>
-      <c r="B89" s="56"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
+      </c>
+      <c r="B89" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>
+        <v>add</v>
+      </c>
       <c r="C89" s="56" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D89" s="56"/>
       <c r="E89" s="56"/>
-      <c r="F89" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
-      </c>
+      <c r="F89" s="56"/>
       <c r="G89" s="56"/>
       <c r="H89" s="56"/>
       <c r="I89" s="56"/>
@@ -5462,16 +5456,16 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B90" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C90" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D90" s="56"/>
       <c r="E90" s="56"/>
@@ -5499,20 +5493,23 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B91" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C91" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D91" s="56"/>
       <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
+      <c r="F91" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
+      </c>
       <c r="G91" s="56"/>
       <c r="H91" s="56"/>
       <c r="I91" s="56"/>
@@ -5536,20 +5533,23 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B92" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C92" s="56" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D92" s="56"/>
       <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
+      <c r="F92" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
+      </c>
       <c r="G92" s="56"/>
       <c r="H92" s="56"/>
       <c r="I92" s="56"/>
@@ -5572,12 +5572,24 @@
       <c r="Z92" s="56"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="56"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="56"/>
+      <c r="A93" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
+      </c>
+      <c r="B93" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
+      </c>
+      <c r="C93" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D93" s="56"/>
       <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
+      <c r="F93" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G93" s="56"/>
       <c r="H93" s="56"/>
       <c r="I93" s="56"/>
@@ -5600,9 +5612,18 @@
       <c r="Z93" s="56"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="56"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
+      <c r="A94" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
+      </c>
+      <c r="B94" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
+      </c>
+      <c r="C94" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D94" s="56"/>
       <c r="E94" s="56"/>
       <c r="F94" s="56"/>
@@ -5628,9 +5649,18 @@
       <c r="Z94" s="56"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="56"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
+      <c r="A95" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B95" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
+      <c r="C95" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D95" s="56"/>
       <c r="E95" s="56"/>
       <c r="F95" s="56"/>
@@ -5656,12 +5686,21 @@
       <c r="Z95" s="56"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="56"/>
+      <c r="A96" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
       <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
+      <c r="C96" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D96" s="56"/>
       <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
+      <c r="F96" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G96" s="56"/>
       <c r="H96" s="56"/>
       <c r="I96" s="56"/>
@@ -5684,12 +5723,21 @@
       <c r="Z96" s="56"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="56"/>
+      <c r="A97" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
       <c r="B97" s="56"/>
-      <c r="C97" s="56"/>
+      <c r="C97" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D97" s="56"/>
       <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
+      <c r="F97" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G97" s="56"/>
       <c r="H97" s="56"/>
       <c r="I97" s="56"/>
@@ -5712,9 +5760,18 @@
       <c r="Z97" s="56"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="56"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="56"/>
+      <c r="A98" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
+      </c>
+      <c r="B98" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C98" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
@@ -5740,9 +5797,18 @@
       <c r="Z98" s="56"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
+      <c r="A99" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
+      </c>
+      <c r="B99" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
+      </c>
+      <c r="C99" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D99" s="56"/>
       <c r="E99" s="56"/>
       <c r="F99" s="56"/>
@@ -5768,9 +5834,18 @@
       <c r="Z99" s="56"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="56"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
+      <c r="A100" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
+      </c>
+      <c r="B100" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
+      </c>
+      <c r="C100" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D100" s="56"/>
       <c r="E100" s="56"/>
       <c r="F100" s="56"/>
@@ -5796,12 +5871,24 @@
       <c r="Z100" s="56"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="56"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="56"/>
+      <c r="A101" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
+      </c>
+      <c r="B101" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
+        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+      </c>
+      <c r="C101" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D101" s="56"/>
       <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
+      <c r="F101" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G101" s="56"/>
       <c r="H101" s="56"/>
       <c r="I101" s="56"/>
@@ -5824,9 +5911,18 @@
       <c r="Z101" s="56"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="56"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
+      <c r="A102" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
+      </c>
+      <c r="B102" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
+      </c>
+      <c r="C102" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D102" s="56"/>
       <c r="E102" s="56"/>
       <c r="F102" s="56"/>
@@ -5852,9 +5948,18 @@
       <c r="Z102" s="56"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="56"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="56"/>
+      <c r="A103" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
+      </c>
+      <c r="B103" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
+      </c>
+      <c r="C103" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D103" s="56"/>
       <c r="E103" s="56"/>
       <c r="F103" s="56"/>
@@ -5880,12 +5985,24 @@
       <c r="Z103" s="56"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="56"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="56"/>
+      <c r="A104" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
+      </c>
+      <c r="B104" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
+        <v>locator,component,property,key,expect</v>
+      </c>
+      <c r="C104" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D104" s="56"/>
       <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
+      <c r="F104" s="56" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
+      </c>
       <c r="G104" s="56"/>
       <c r="H104" s="56"/>
       <c r="I104" s="56"/>

--- a/config/testcases/Report_Chunking1Speaking(Clone).xlsx
+++ b/config/testcases/Report_Chunking1Speaking(Clone).xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="tqtbqOKEbWkHMTd/gQ7QQCjNBL0XuYQixXBlcko4tdI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="JiVYHd+xl1IcO2JVF3AmKZHB2yPsT/pWq1c8FjDo73c="/>
     </ext>
   </extLst>
 </workbook>
@@ -204,7 +204,7 @@
     <t>Click mic</t>
   </si>
   <si>
-    <t>Micro-Working,Button,onClick</t>
+    <t>Micro-Working,Button,onClick()</t>
   </si>
   <si>
     <t>TS5</t>
@@ -1509,7 +1509,7 @@
       <c r="M10" s="20"/>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" ht="36.0" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
@@ -1801,34 +1801,18 @@
       <c r="M20" s="20"/>
       <c r="N20" s="18"/>
     </row>
-    <row r="21" ht="33.0" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="18"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L21 M1:N1">
+  <conditionalFormatting sqref="L1:L20 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L21 M1:N1">
+  <conditionalFormatting sqref="L1:L20 M1:N1">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L21 M1:N1">
+  <conditionalFormatting sqref="L1:L20 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -1840,7 +1824,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4">
       <formula1>Keywords!$A$2:$A35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A1:A20">
       <formula1>TestCase!$A:$A</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7 H14:H15">
@@ -1849,8 +1833,8 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10 H18">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5:D10 D12:D21">
-      <formula1>Keywords!$A$2:$A21</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5:D10 D12:D20">
+      <formula1>Keywords!$A$2:$A20</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>Keywords!$A$2:$A34</formula1>
@@ -1864,7 +1848,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G20">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9 H16">
@@ -1873,7 +1857,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4">
       <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8 H12 H17 H19:H21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8 H12 H17 H19:H20">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
   </dataValidations>
